--- a/Proyectos/2016/1/P1414 - RNCFACMU2, Erica Escobar_OC/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2016/1/P1414 - RNCFACMU2, Erica Escobar_OC/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1414 - RNCFACMU2, Erica Escobar_OC</t>
   </si>
@@ -47,16 +47,19 @@
     <t>Marisol Ornelas</t>
   </si>
   <si>
+    <t>Cerrada</t>
+  </si>
+  <si>
+    <t>Crear una carpeta llamada lineabase y agregar tambien el plan de proyecto, carta de aceptacion, estimacion y cotizacion.</t>
+  </si>
+  <si>
+    <t>El proyecto no cuenta con encuesta de satisfaccion</t>
+  </si>
+  <si>
+    <t>Judith Jaramillo</t>
+  </si>
+  <si>
     <t>En proceso</t>
-  </si>
-  <si>
-    <t>Crear una carpeta llamada lineabase y agregar tambien el plan de proyecto, carta de aceptacion, estimacion y cotizacion.</t>
-  </si>
-  <si>
-    <t>El proyecto no cuenta con encuesta de satisfaccion</t>
-  </si>
-  <si>
-    <t>Judith Jaramillo</t>
   </si>
   <si>
     <t>Generar encuesta de satisfaccion</t>
@@ -309,8 +312,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -382,7 +385,9 @@
       <c r="D4" s="5" t="n">
         <v>42391</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>42394</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
@@ -405,10 +410,10 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -426,7 +431,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -435,7 +440,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -443,7 +448,9 @@
       <c r="D7" s="5" t="n">
         <v>42391</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="n">
+        <v>42394</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>

--- a/Proyectos/2016/1/P1414 - RNCFACMU2, Erica Escobar_OC/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2016/1/P1414 - RNCFACMU2, Erica Escobar_OC/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1414 - RNCFACMU2, Erica Escobar_OC</t>
   </si>
@@ -44,7 +44,7 @@
     <t>No existe linea base</t>
   </si>
   <si>
-    <t>Marisol Ornelas</t>
+    <t>Oriana Campos</t>
   </si>
   <si>
     <t>Cerrada</t>
@@ -59,6 +59,9 @@
     <t>Judith Jaramillo</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>En proceso</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>No se ha enviado carta de aceptacion , ni correo de creacion de linea base</t>
+  </si>
+  <si>
+    <t>N/a</t>
   </si>
   <si>
     <t>No se tiene fecha de cierre en plan de proyecot</t>
@@ -313,7 +319,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -408,12 +414,14 @@
       <c r="D5" s="5" t="n">
         <v>42391</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,7 +429,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -429,9 +437,11 @@
       <c r="D6" s="5" t="n">
         <v>42394</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -440,7 +450,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
